--- a/public/static/excels/sinh-vien-example.xlsx
+++ b/public/static/excels/sinh-vien-example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\projects\b4e_new\school\frontend\public\static\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HoangNam\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8336F0E1-411A-447F-9A52-2F2F4056E620}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A306EC98-7CED-4DD8-9611-92A6EEC92804}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C9A03890-1FA5-404E-AE13-2C5BD7426976}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5E8100A6-738B-45FE-BE61-8F01E05A3818}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,19 +420,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC68551D-DF77-4B87-A4C1-5250085EF658}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB3873A4-A37F-45E7-ACB6-0255E078C2D1}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -521,6 +520,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/static/excels/sinh-vien-example.xlsx
+++ b/public/static/excels/sinh-vien-example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HoangNam\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A306EC98-7CED-4DD8-9611-92A6EEC92804}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3BA8A5-0C1F-4563-946C-00431F0B155B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{5E8100A6-738B-45FE-BE61-8F01E05A3818}"/>
+    <workbookView xWindow="-28920" yWindow="-1245" windowWidth="29040" windowHeight="15990" xr2:uid="{5E8100A6-738B-45FE-BE61-8F01E05A3818}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Mssv</t>
   </si>
@@ -48,18 +48,12 @@
     <t>Lớp</t>
   </si>
   <si>
-    <t>Nguyễn Văn B</t>
-  </si>
-  <si>
     <t>20-10-2000</t>
   </si>
   <si>
     <t>CNTT1.02</t>
   </si>
   <si>
-    <t>Lý Thị C</t>
-  </si>
-  <si>
     <t>CNTT2.01</t>
   </si>
   <si>
@@ -70,6 +64,15 @@
   </si>
   <si>
     <t>Đào Thị F</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn An</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Bình</t>
+  </si>
+  <si>
+    <t>10/10/1998</t>
   </si>
 </sst>
 </file>
@@ -105,8 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,13 +428,13 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -453,13 +457,13 @@
         <v>20161234</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -467,13 +471,13 @@
         <v>20161235</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -481,13 +485,13 @@
         <v>20161236</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -495,13 +499,13 @@
         <v>20161237</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -509,13 +513,13 @@
         <v>20161238</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
